--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2502,28 +2502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>935.4287163946063</v>
+        <v>1091.976725882618</v>
       </c>
       <c r="AB2" t="n">
-        <v>1279.894837973505</v>
+        <v>1494.090730965751</v>
       </c>
       <c r="AC2" t="n">
-        <v>1157.743470981</v>
+        <v>1351.49680857189</v>
       </c>
       <c r="AD2" t="n">
-        <v>935428.7163946064</v>
+        <v>1091976.725882618</v>
       </c>
       <c r="AE2" t="n">
-        <v>1279894.837973505</v>
+        <v>1494090.730965751</v>
       </c>
       <c r="AF2" t="n">
         <v>5.265673295511932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.80833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1157743.470981</v>
+        <v>1351496.80857189</v>
       </c>
     </row>
     <row r="3">
@@ -2608,28 +2608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.2424011804219</v>
+        <v>454.4832515355042</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.7914519383208</v>
+        <v>621.8440351368503</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.6604782796674</v>
+        <v>562.4961131869734</v>
       </c>
       <c r="AD3" t="n">
-        <v>376242.4011804219</v>
+        <v>454483.2515355042</v>
       </c>
       <c r="AE3" t="n">
-        <v>514791.4519383209</v>
+        <v>621844.0351368503</v>
       </c>
       <c r="AF3" t="n">
         <v>9.704900692865686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.17083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>465660.4782796674</v>
+        <v>562496.1131869734</v>
       </c>
     </row>
     <row r="4">
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.2643179761568</v>
+        <v>378.7166470608909</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.5173277506448</v>
+        <v>518.176824308003</v>
       </c>
       <c r="AC4" t="n">
-        <v>384.001989803934</v>
+        <v>468.722755461787</v>
       </c>
       <c r="AD4" t="n">
-        <v>310264.3179761568</v>
+        <v>378716.6470608909</v>
       </c>
       <c r="AE4" t="n">
-        <v>424517.3277506448</v>
+        <v>518176.8243080029</v>
       </c>
       <c r="AF4" t="n">
         <v>1.109825683565835e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.14166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>384001.989803934</v>
+        <v>468722.7554617869</v>
       </c>
     </row>
     <row r="5">
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>261.753376676787</v>
+        <v>330.2388601504446</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.1425177131612</v>
+        <v>451.847377568113</v>
       </c>
       <c r="AC5" t="n">
-        <v>323.9618984787968</v>
+        <v>408.7236980247889</v>
       </c>
       <c r="AD5" t="n">
-        <v>261753.376676787</v>
+        <v>330238.8601504446</v>
       </c>
       <c r="AE5" t="n">
-        <v>358142.5177131612</v>
+        <v>451847.377568113</v>
       </c>
       <c r="AF5" t="n">
         <v>1.212735902060281e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.94166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>323961.8984787968</v>
+        <v>408723.6980247889</v>
       </c>
     </row>
     <row r="6">
@@ -2926,28 +2926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>250.9084297501961</v>
+        <v>319.3939132238569</v>
       </c>
       <c r="AB6" t="n">
-        <v>343.303982882746</v>
+        <v>437.0088427378643</v>
       </c>
       <c r="AC6" t="n">
-        <v>310.5395325866853</v>
+        <v>395.3013321327246</v>
       </c>
       <c r="AD6" t="n">
-        <v>250908.4297501961</v>
+        <v>319393.9132238569</v>
       </c>
       <c r="AE6" t="n">
-        <v>343303.982882746</v>
+        <v>437008.8427378642</v>
       </c>
       <c r="AF6" t="n">
         <v>1.247390880469831e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.58333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>310539.5325866853</v>
+        <v>395301.3321327246</v>
       </c>
     </row>
     <row r="7">
@@ -3032,28 +3032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>243.434886859368</v>
+        <v>302.0986946737567</v>
       </c>
       <c r="AB7" t="n">
-        <v>333.0783517900775</v>
+        <v>413.3447617064255</v>
       </c>
       <c r="AC7" t="n">
-        <v>301.2898213737344</v>
+        <v>373.89571778218</v>
       </c>
       <c r="AD7" t="n">
-        <v>243434.886859368</v>
+        <v>302098.6946737567</v>
       </c>
       <c r="AE7" t="n">
-        <v>333078.3517900775</v>
+        <v>413344.7617064255</v>
       </c>
       <c r="AF7" t="n">
         <v>1.276282585296053e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.29583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>301289.8213737344</v>
+        <v>373895.71778218</v>
       </c>
     </row>
   </sheetData>
@@ -3329,28 +3329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.9842270436911</v>
+        <v>726.0493316185032</v>
       </c>
       <c r="AB2" t="n">
-        <v>834.6073300460208</v>
+        <v>993.4127265563108</v>
       </c>
       <c r="AC2" t="n">
-        <v>754.9535778451726</v>
+        <v>898.6028101972943</v>
       </c>
       <c r="AD2" t="n">
-        <v>609984.2270436911</v>
+        <v>726049.3316185032</v>
       </c>
       <c r="AE2" t="n">
-        <v>834607.3300460208</v>
+        <v>993412.7265563108</v>
       </c>
       <c r="AF2" t="n">
         <v>7.345555488273049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.37916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>754953.5778451726</v>
+        <v>898602.8101972942</v>
       </c>
     </row>
     <row r="3">
@@ -3435,28 +3435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.4903627810111</v>
+        <v>379.9005905630952</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.8806592899483</v>
+        <v>519.7967480396198</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.3804700524685</v>
+        <v>470.1880759460356</v>
       </c>
       <c r="AD3" t="n">
-        <v>302490.3627810111</v>
+        <v>379900.5905630952</v>
       </c>
       <c r="AE3" t="n">
-        <v>413880.6592899482</v>
+        <v>519796.7480396199</v>
       </c>
       <c r="AF3" t="n">
         <v>1.172024553162004e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.65416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>374380.4700524685</v>
+        <v>470188.0759460356</v>
       </c>
     </row>
     <row r="4">
@@ -3541,28 +3541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.7947516595931</v>
+        <v>316.8448921713182</v>
       </c>
       <c r="AB4" t="n">
-        <v>354.0943964393127</v>
+        <v>433.5211596789086</v>
       </c>
       <c r="AC4" t="n">
-        <v>320.3001242177507</v>
+        <v>392.1465086499219</v>
       </c>
       <c r="AD4" t="n">
-        <v>258794.7516595931</v>
+        <v>316844.8921713182</v>
       </c>
       <c r="AE4" t="n">
-        <v>354094.3964393127</v>
+        <v>433521.1596789086</v>
       </c>
       <c r="AF4" t="n">
         <v>1.313932013301855e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.07083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>320300.1242177507</v>
+        <v>392146.5086499219</v>
       </c>
     </row>
     <row r="5">
@@ -3647,28 +3647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>232.2254920708383</v>
+        <v>290.2414671637854</v>
       </c>
       <c r="AB5" t="n">
-        <v>317.7411633168225</v>
+        <v>397.1211799233238</v>
       </c>
       <c r="AC5" t="n">
-        <v>287.4163926424828</v>
+        <v>359.2204918745176</v>
       </c>
       <c r="AD5" t="n">
-        <v>232225.4920708383</v>
+        <v>290241.4671637854</v>
       </c>
       <c r="AE5" t="n">
-        <v>317741.1633168225</v>
+        <v>397121.1799233238</v>
       </c>
       <c r="AF5" t="n">
         <v>1.387090811369887e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.37916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>287416.3926424828</v>
+        <v>359220.4918745176</v>
       </c>
     </row>
     <row r="6">
@@ -3753,28 +3753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.1258100695834</v>
+        <v>291.1417851625306</v>
       </c>
       <c r="AB6" t="n">
-        <v>318.9730181219318</v>
+        <v>398.3530347284338</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.5306809539119</v>
+        <v>360.334780185947</v>
       </c>
       <c r="AD6" t="n">
-        <v>233125.8100695834</v>
+        <v>291141.7851625306</v>
       </c>
       <c r="AE6" t="n">
-        <v>318973.0181219318</v>
+        <v>398353.0347284338</v>
       </c>
       <c r="AF6" t="n">
         <v>1.384164459447165e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.40833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>288530.6809539119</v>
+        <v>360334.780185947</v>
       </c>
     </row>
   </sheetData>
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.5327924286758</v>
+        <v>322.3424809277103</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.685286976836</v>
+        <v>441.0432031519028</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.3616385356535</v>
+        <v>398.9506588511078</v>
       </c>
       <c r="AD2" t="n">
-        <v>247532.7924286758</v>
+        <v>322342.4809277102</v>
       </c>
       <c r="AE2" t="n">
-        <v>338685.286976836</v>
+        <v>441043.2031519028</v>
       </c>
       <c r="AF2" t="n">
         <v>1.63888368473551e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>306361.6385356535</v>
+        <v>398950.6588511078</v>
       </c>
     </row>
     <row r="3">
@@ -4156,28 +4156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.5130138568189</v>
+        <v>284.899900808422</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.3473897894529</v>
+        <v>389.8126131826396</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.6826564482453</v>
+        <v>352.6094444859264</v>
       </c>
       <c r="AD3" t="n">
-        <v>219513.0138568189</v>
+        <v>284899.900808422</v>
       </c>
       <c r="AE3" t="n">
-        <v>300347.3897894529</v>
+        <v>389812.6131826396</v>
       </c>
       <c r="AF3" t="n">
         <v>1.78362643083192e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>271682.6564482453</v>
+        <v>352609.4444859264</v>
       </c>
     </row>
   </sheetData>
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.4053329170681</v>
+        <v>420.2327395559755</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.2305705880767</v>
+        <v>574.9809736205135</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.2569863074096</v>
+        <v>520.1055964890359</v>
       </c>
       <c r="AD2" t="n">
-        <v>344405.332917068</v>
+        <v>420232.7395559755</v>
       </c>
       <c r="AE2" t="n">
-        <v>471230.5705880767</v>
+        <v>574980.9736205135</v>
       </c>
       <c r="AF2" t="n">
         <v>1.213814347293436e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>426256.9863074096</v>
+        <v>520105.5964890359</v>
       </c>
     </row>
     <row r="3">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.1702285702651</v>
+        <v>287.0324949522177</v>
       </c>
       <c r="AB3" t="n">
-        <v>314.9290611235134</v>
+        <v>392.7305225735943</v>
       </c>
       <c r="AC3" t="n">
-        <v>284.8726735356919</v>
+        <v>355.24887269992</v>
       </c>
       <c r="AD3" t="n">
-        <v>230170.2285702651</v>
+        <v>287032.4949522177</v>
       </c>
       <c r="AE3" t="n">
-        <v>314929.0611235134</v>
+        <v>392730.5225735944</v>
       </c>
       <c r="AF3" t="n">
         <v>1.588111966371403e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.07083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>284872.6735356919</v>
+        <v>355248.87269992</v>
       </c>
     </row>
     <row r="4">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>217.0900901026783</v>
+        <v>283.4339155832524</v>
       </c>
       <c r="AB4" t="n">
-        <v>297.0322386171874</v>
+        <v>387.8067875228589</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.6838986510159</v>
+        <v>350.7950520119212</v>
       </c>
       <c r="AD4" t="n">
-        <v>217090.0901026783</v>
+        <v>283433.9155832524</v>
       </c>
       <c r="AE4" t="n">
-        <v>297032.2386171874</v>
+        <v>387806.7875228589</v>
       </c>
       <c r="AF4" t="n">
         <v>1.615961343326625e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.84583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>268683.8986510158</v>
+        <v>350795.0520119212</v>
       </c>
     </row>
   </sheetData>
@@ -4962,28 +4962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.2274671007161</v>
+        <v>289.9188496312547</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.1661568216336</v>
+        <v>396.6797603824341</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.7552113285856</v>
+        <v>358.8212007950742</v>
       </c>
       <c r="AD2" t="n">
-        <v>225227.4671007161</v>
+        <v>289918.8496312547</v>
       </c>
       <c r="AE2" t="n">
-        <v>308166.1568216336</v>
+        <v>396679.7603824341</v>
       </c>
       <c r="AF2" t="n">
         <v>1.915993707269344e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>278755.2113285856</v>
+        <v>358821.2007950742</v>
       </c>
     </row>
     <row r="3">
@@ -5068,28 +5068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>225.5963832848284</v>
+        <v>290.287765815367</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.6709242201692</v>
+        <v>397.18452778097</v>
       </c>
       <c r="AC3" t="n">
-        <v>279.2118044350507</v>
+        <v>359.2777939015394</v>
       </c>
       <c r="AD3" t="n">
-        <v>225596.3832848285</v>
+        <v>290287.765815367</v>
       </c>
       <c r="AE3" t="n">
-        <v>308670.9242201693</v>
+        <v>397184.52778097</v>
       </c>
       <c r="AF3" t="n">
         <v>1.920672005405946e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.29583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>279211.8044350507</v>
+        <v>359277.7939015394</v>
       </c>
     </row>
   </sheetData>
@@ -5365,28 +5365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>672.3766267081875</v>
+        <v>798.5585343741548</v>
       </c>
       <c r="AB2" t="n">
-        <v>919.9753638253923</v>
+        <v>1092.623016646853</v>
       </c>
       <c r="AC2" t="n">
-        <v>832.1742062954287</v>
+        <v>988.3446094441117</v>
       </c>
       <c r="AD2" t="n">
-        <v>672376.6267081875</v>
+        <v>798558.5343741548</v>
       </c>
       <c r="AE2" t="n">
-        <v>919975.3638253922</v>
+        <v>1092623.016646853</v>
       </c>
       <c r="AF2" t="n">
         <v>6.767106722186279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>832174.2062954287</v>
+        <v>988344.6094441117</v>
       </c>
     </row>
     <row r="3">
@@ -5471,19 +5471,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.9277015579154</v>
+        <v>392.5649657297487</v>
       </c>
       <c r="AB3" t="n">
-        <v>430.8979749011704</v>
+        <v>537.1247048554355</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.773676945708</v>
+        <v>485.8622768832899</v>
       </c>
       <c r="AD3" t="n">
-        <v>314927.7015579154</v>
+        <v>392564.9657297487</v>
       </c>
       <c r="AE3" t="n">
-        <v>430897.9749011704</v>
+        <v>537124.7048554355</v>
       </c>
       <c r="AF3" t="n">
         <v>1.117206082746914e-05</v>
@@ -5492,7 +5492,7 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>389773.676945708</v>
+        <v>485862.2768832899</v>
       </c>
     </row>
     <row r="4">
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.2354368781423</v>
+        <v>338.0964525434444</v>
       </c>
       <c r="AB4" t="n">
-        <v>369.7480466827416</v>
+        <v>462.5984821327261</v>
       </c>
       <c r="AC4" t="n">
-        <v>334.4598120519828</v>
+        <v>418.4487322590254</v>
       </c>
       <c r="AD4" t="n">
-        <v>270235.4368781422</v>
+        <v>338096.4525434444</v>
       </c>
       <c r="AE4" t="n">
-        <v>369748.0466827416</v>
+        <v>462598.4821327261</v>
       </c>
       <c r="AF4" t="n">
         <v>1.251422041926323e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.39166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>334459.8120519828</v>
+        <v>418448.7322590254</v>
       </c>
     </row>
     <row r="5">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>235.7702104326056</v>
+        <v>293.9564628178646</v>
       </c>
       <c r="AB5" t="n">
-        <v>322.5912033613272</v>
+        <v>402.2042008712761</v>
       </c>
       <c r="AC5" t="n">
-        <v>291.8035516722155</v>
+        <v>363.8183964372621</v>
       </c>
       <c r="AD5" t="n">
-        <v>235770.2104326056</v>
+        <v>293956.4628178646</v>
       </c>
       <c r="AE5" t="n">
-        <v>322591.2033613272</v>
+        <v>402204.2008712761</v>
       </c>
       <c r="AF5" t="n">
         <v>1.355834577146505e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.35833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>291803.5516722155</v>
+        <v>363818.3964372621</v>
       </c>
     </row>
     <row r="6">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>234.6963413436799</v>
+        <v>292.8825937289391</v>
       </c>
       <c r="AB6" t="n">
-        <v>321.1218882980994</v>
+        <v>400.7348858080475</v>
       </c>
       <c r="AC6" t="n">
-        <v>290.474465976425</v>
+        <v>362.4893107414713</v>
       </c>
       <c r="AD6" t="n">
-        <v>234696.3413436799</v>
+        <v>292882.5937289391</v>
       </c>
       <c r="AE6" t="n">
-        <v>321121.8882980994</v>
+        <v>400734.8858080475</v>
       </c>
       <c r="AF6" t="n">
         <v>1.358730456397604e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>290474.465976425</v>
+        <v>362489.3107414714</v>
       </c>
     </row>
   </sheetData>
@@ -6086,28 +6086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.112987501308</v>
+        <v>297.4064616542868</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.9554737183257</v>
+        <v>406.9246414824756</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.5148109635622</v>
+        <v>368.0883248217087</v>
       </c>
       <c r="AD2" t="n">
-        <v>233112.987501308</v>
+        <v>297406.4616542868</v>
       </c>
       <c r="AE2" t="n">
-        <v>318955.4737183257</v>
+        <v>406924.6414824756</v>
       </c>
       <c r="AF2" t="n">
         <v>1.997532137346417e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.0375</v>
       </c>
       <c r="AH2" t="n">
-        <v>288514.8109635622</v>
+        <v>368088.3248217087</v>
       </c>
     </row>
   </sheetData>
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.4832587832419</v>
+        <v>556.887809565204</v>
       </c>
       <c r="AB2" t="n">
-        <v>617.7393127028656</v>
+        <v>761.9584692033374</v>
       </c>
       <c r="AC2" t="n">
-        <v>558.7831397010741</v>
+        <v>689.2382223179983</v>
       </c>
       <c r="AD2" t="n">
-        <v>451483.2587832419</v>
+        <v>556887.809565204</v>
       </c>
       <c r="AE2" t="n">
-        <v>617739.3127028656</v>
+        <v>761958.4692033373</v>
       </c>
       <c r="AF2" t="n">
         <v>9.357785083847645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.95416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>558783.1397010741</v>
+        <v>689238.2223179983</v>
       </c>
     </row>
     <row r="3">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.4932908312006</v>
+        <v>320.5109120898699</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.8407038497973</v>
+        <v>438.5371698648553</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.7387138684613</v>
+        <v>396.6837978637363</v>
       </c>
       <c r="AD3" t="n">
-        <v>253493.2908312006</v>
+        <v>320510.9120898699</v>
       </c>
       <c r="AE3" t="n">
-        <v>346840.7038497973</v>
+        <v>438537.1698648554</v>
       </c>
       <c r="AF3" t="n">
         <v>1.390088218130759e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.43333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>313738.7138684613</v>
+        <v>396683.7978637363</v>
       </c>
     </row>
     <row r="4">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.3406735208161</v>
+        <v>292.4256145871894</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.321050839929</v>
+        <v>400.1096267858088</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.8953224791701</v>
+        <v>361.9237255627586</v>
       </c>
       <c r="AD4" t="n">
-        <v>225340.6735208161</v>
+        <v>292425.6145871894</v>
       </c>
       <c r="AE4" t="n">
-        <v>308321.050839929</v>
+        <v>400109.6267858088</v>
       </c>
       <c r="AF4" t="n">
         <v>1.481738938899286e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>278895.3224791702</v>
+        <v>361923.7255627586</v>
       </c>
     </row>
     <row r="5">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>225.0305022870154</v>
+        <v>292.1154433533887</v>
       </c>
       <c r="AB5" t="n">
-        <v>307.8966608740541</v>
+        <v>399.6852368199336</v>
       </c>
       <c r="AC5" t="n">
-        <v>278.5114356960031</v>
+        <v>361.5398387795914</v>
       </c>
       <c r="AD5" t="n">
-        <v>225030.5022870154</v>
+        <v>292115.4433533887</v>
       </c>
       <c r="AE5" t="n">
-        <v>307896.6608740541</v>
+        <v>399685.2368199336</v>
       </c>
       <c r="AF5" t="n">
         <v>1.486892891411941e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.55833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>278511.4356960031</v>
+        <v>361539.8387795914</v>
       </c>
     </row>
   </sheetData>
@@ -6998,28 +6998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>554.5124555455167</v>
+        <v>660.6071305055417</v>
       </c>
       <c r="AB2" t="n">
-        <v>758.7084050403779</v>
+        <v>903.8718198874053</v>
       </c>
       <c r="AC2" t="n">
-        <v>686.2983397172578</v>
+        <v>817.6075619894173</v>
       </c>
       <c r="AD2" t="n">
-        <v>554512.4555455167</v>
+        <v>660607.1305055417</v>
       </c>
       <c r="AE2" t="n">
-        <v>758708.4050403779</v>
+        <v>903871.8198874053</v>
       </c>
       <c r="AF2" t="n">
         <v>7.969515892292731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.11666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>686298.3397172578</v>
+        <v>817607.5619894173</v>
       </c>
     </row>
     <row r="3">
@@ -7104,28 +7104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.1644208405693</v>
+        <v>356.6547340668745</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.6475176279693</v>
+        <v>487.9907416466806</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.8874738403337</v>
+        <v>441.4175901632282</v>
       </c>
       <c r="AD3" t="n">
-        <v>289164.4208405693</v>
+        <v>356654.7340668745</v>
       </c>
       <c r="AE3" t="n">
-        <v>395647.5176279693</v>
+        <v>487990.7416466806</v>
       </c>
       <c r="AF3" t="n">
         <v>1.236905754948496e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>357887.4738403336</v>
+        <v>441417.5901632282</v>
       </c>
     </row>
     <row r="4">
@@ -7210,28 +7210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.2062545484237</v>
+        <v>306.7297221636555</v>
       </c>
       <c r="AB4" t="n">
-        <v>327.2925505081553</v>
+        <v>419.6811378246186</v>
       </c>
       <c r="AC4" t="n">
-        <v>296.0562088457339</v>
+        <v>379.6273590568126</v>
       </c>
       <c r="AD4" t="n">
-        <v>239206.2545484237</v>
+        <v>306729.7221636556</v>
       </c>
       <c r="AE4" t="n">
-        <v>327292.5505081553</v>
+        <v>419681.1378246186</v>
       </c>
       <c r="AF4" t="n">
         <v>1.373756882458274e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.82916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>296056.2088457339</v>
+        <v>379627.3590568126</v>
       </c>
     </row>
     <row r="5">
@@ -7316,28 +7316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>229.760908569813</v>
+        <v>287.6001313626911</v>
       </c>
       <c r="AB5" t="n">
-        <v>314.3690114409712</v>
+        <v>393.5071877527551</v>
       </c>
       <c r="AC5" t="n">
-        <v>284.3660742088167</v>
+        <v>355.9514140444381</v>
       </c>
       <c r="AD5" t="n">
-        <v>229760.908569813</v>
+        <v>287600.1313626911</v>
       </c>
       <c r="AE5" t="n">
-        <v>314369.0114409712</v>
+        <v>393507.1877527551</v>
       </c>
       <c r="AF5" t="n">
         <v>1.417371569463708e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>284366.0742088167</v>
+        <v>355951.4140444381</v>
       </c>
     </row>
   </sheetData>
@@ -7613,28 +7613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>830.7646133970458</v>
+        <v>977.1388072110522</v>
       </c>
       <c r="AB2" t="n">
-        <v>1136.688794797902</v>
+        <v>1336.964424347903</v>
       </c>
       <c r="AC2" t="n">
-        <v>1028.204811575132</v>
+        <v>1209.366416129494</v>
       </c>
       <c r="AD2" t="n">
-        <v>830764.6133970458</v>
+        <v>977138.8072110522</v>
       </c>
       <c r="AE2" t="n">
-        <v>1136688.794797902</v>
+        <v>1336964.424347903</v>
       </c>
       <c r="AF2" t="n">
         <v>5.743394093613124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>1028204.811575133</v>
+        <v>1209366.416129494</v>
       </c>
     </row>
     <row r="3">
@@ -7719,28 +7719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>350.8902055467597</v>
+        <v>428.9928853609293</v>
       </c>
       <c r="AB3" t="n">
-        <v>480.1034594124099</v>
+        <v>586.9669915812084</v>
       </c>
       <c r="AC3" t="n">
-        <v>434.2830590755261</v>
+        <v>530.9476857180438</v>
       </c>
       <c r="AD3" t="n">
-        <v>350890.2055467597</v>
+        <v>428992.8853609293</v>
       </c>
       <c r="AE3" t="n">
-        <v>480103.4594124099</v>
+        <v>586966.9915812084</v>
       </c>
       <c r="AF3" t="n">
         <v>1.018543930120102e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.73333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>434283.0590755261</v>
+        <v>530947.6857180438</v>
       </c>
     </row>
     <row r="4">
@@ -7825,28 +7825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>306.8776772199819</v>
+        <v>375.1502022496759</v>
       </c>
       <c r="AB4" t="n">
-        <v>419.8835764600008</v>
+        <v>513.2970571768581</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.8104772329583</v>
+        <v>464.3087064568423</v>
       </c>
       <c r="AD4" t="n">
-        <v>306877.6772199819</v>
+        <v>375150.2022496759</v>
       </c>
       <c r="AE4" t="n">
-        <v>419883.5764600008</v>
+        <v>513297.057176858</v>
       </c>
       <c r="AF4" t="n">
         <v>1.129950777721021e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.17916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>379810.4772329583</v>
+        <v>464308.7064568424</v>
       </c>
     </row>
     <row r="5">
@@ -7931,28 +7931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>253.591326387403</v>
+        <v>321.8970058060237</v>
       </c>
       <c r="AB5" t="n">
-        <v>346.9748404228167</v>
+        <v>440.4336844374359</v>
       </c>
       <c r="AC5" t="n">
-        <v>313.8600486352137</v>
+        <v>398.3993117472847</v>
       </c>
       <c r="AD5" t="n">
-        <v>253591.326387403</v>
+        <v>321897.0058060237</v>
       </c>
       <c r="AE5" t="n">
-        <v>346974.8404228167</v>
+        <v>440433.6844374359</v>
       </c>
       <c r="AF5" t="n">
         <v>1.254740291171135e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.77083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>313860.0486352138</v>
+        <v>398399.3117472847</v>
       </c>
     </row>
     <row r="6">
@@ -8037,28 +8037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>241.7359386046429</v>
+        <v>300.2456286575686</v>
       </c>
       <c r="AB6" t="n">
-        <v>330.7537758356565</v>
+        <v>410.8093150315739</v>
       </c>
       <c r="AC6" t="n">
-        <v>299.1870996858398</v>
+        <v>371.6022505794546</v>
       </c>
       <c r="AD6" t="n">
-        <v>241735.9386046429</v>
+        <v>300245.6286575686</v>
       </c>
       <c r="AE6" t="n">
-        <v>330753.7758356566</v>
+        <v>410809.3150315739</v>
       </c>
       <c r="AF6" t="n">
         <v>1.295657407445687e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>299187.0996858398</v>
+        <v>371602.2505794546</v>
       </c>
     </row>
     <row r="7">
@@ -8143,28 +8143,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>240.8276432338117</v>
+        <v>299.3373332867374</v>
       </c>
       <c r="AB7" t="n">
-        <v>329.5110060381223</v>
+        <v>409.566545234039</v>
       </c>
       <c r="AC7" t="n">
-        <v>298.0629380935435</v>
+        <v>370.4780889871582</v>
       </c>
       <c r="AD7" t="n">
-        <v>240827.6432338117</v>
+        <v>299337.3332867374</v>
       </c>
       <c r="AE7" t="n">
-        <v>329511.0060381223</v>
+        <v>409566.545234039</v>
       </c>
       <c r="AF7" t="n">
         <v>1.30134888602523e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.3125</v>
       </c>
       <c r="AH7" t="n">
-        <v>298062.9380935435</v>
+        <v>370478.0889871581</v>
       </c>
     </row>
   </sheetData>
@@ -8440,28 +8440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.8453670983803</v>
+        <v>465.9744561528794</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.4069918069321</v>
+        <v>637.5668082505116</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.9807806590635</v>
+        <v>576.7183269017173</v>
       </c>
       <c r="AD2" t="n">
-        <v>370845.3670983803</v>
+        <v>465974.4561528794</v>
       </c>
       <c r="AE2" t="n">
-        <v>507406.9918069321</v>
+        <v>637566.8082505116</v>
       </c>
       <c r="AF2" t="n">
         <v>1.110074115533806e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.99583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>458980.7806590635</v>
+        <v>576718.3269017173</v>
       </c>
     </row>
     <row r="3">
@@ -8546,28 +8546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.6938504019834</v>
+        <v>313.3320443264289</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.537409484406</v>
+        <v>428.7147262816219</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.3233128600444</v>
+        <v>387.7987945102005</v>
       </c>
       <c r="AD3" t="n">
-        <v>246693.8504019834</v>
+        <v>313332.0443264289</v>
       </c>
       <c r="AE3" t="n">
-        <v>337537.409484406</v>
+        <v>428714.7262816219</v>
       </c>
       <c r="AF3" t="n">
         <v>1.461961138121504e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.6625</v>
       </c>
       <c r="AH3" t="n">
-        <v>305323.3128600444</v>
+        <v>387798.7945102005</v>
       </c>
     </row>
     <row r="4">
@@ -8652,28 +8652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.5535006963509</v>
+        <v>286.1575292020153</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.4027856694537</v>
+        <v>391.5333558334027</v>
       </c>
       <c r="AC4" t="n">
-        <v>271.7327654232075</v>
+        <v>354.1659618731782</v>
       </c>
       <c r="AD4" t="n">
-        <v>219553.5006963509</v>
+        <v>286157.5292020153</v>
       </c>
       <c r="AE4" t="n">
-        <v>300402.7856694537</v>
+        <v>391533.3558334027</v>
       </c>
       <c r="AF4" t="n">
         <v>1.57049958759542e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.72083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>271732.7654232075</v>
+        <v>354165.9618731781</v>
       </c>
     </row>
   </sheetData>
@@ -8949,28 +8949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.4533037528501</v>
+        <v>354.5592854755394</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.3603388043025</v>
+        <v>485.1236564393485</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.8684047149251</v>
+        <v>438.8241355441044</v>
       </c>
       <c r="AD2" t="n">
-        <v>279453.3037528501</v>
+        <v>354559.2854755394</v>
       </c>
       <c r="AE2" t="n">
-        <v>382360.3388043025</v>
+        <v>485123.6564393485</v>
       </c>
       <c r="AF2" t="n">
         <v>1.466597462243941e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>345868.4047149251</v>
+        <v>438824.1355441044</v>
       </c>
     </row>
     <row r="3">
@@ -9055,28 +9055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.2101758854398</v>
+        <v>277.5826217083999</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.6695217505153</v>
+        <v>379.8007891024185</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.7831673940773</v>
+        <v>343.5531348442383</v>
       </c>
       <c r="AD3" t="n">
-        <v>221210.1758854399</v>
+        <v>277582.6217083998</v>
       </c>
       <c r="AE3" t="n">
-        <v>302669.5217505153</v>
+        <v>379800.7891024185</v>
       </c>
       <c r="AF3" t="n">
         <v>1.72607575247146e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.15833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>273783.1673940773</v>
+        <v>343553.1348442383</v>
       </c>
     </row>
   </sheetData>
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.9070237218443</v>
+        <v>294.9814758377088</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.5689326381258</v>
+        <v>403.6066689054099</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.5469152075061</v>
+        <v>365.0870148905944</v>
       </c>
       <c r="AD2" t="n">
-        <v>229907.0237218443</v>
+        <v>294981.4758377089</v>
       </c>
       <c r="AE2" t="n">
-        <v>314568.9326381258</v>
+        <v>403606.6689054099</v>
       </c>
       <c r="AF2" t="n">
         <v>1.818466482667029e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.02916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>284546.9152075061</v>
+        <v>365087.0148905944</v>
       </c>
     </row>
     <row r="3">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.7991442682955</v>
+        <v>282.9409161918643</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.0023978078464</v>
+        <v>387.1322440059636</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.5614672101457</v>
+        <v>350.1848859815507</v>
       </c>
       <c r="AD3" t="n">
-        <v>217799.1442682956</v>
+        <v>282940.9161918644</v>
       </c>
       <c r="AE3" t="n">
-        <v>298002.3978078464</v>
+        <v>387132.2440059636</v>
       </c>
       <c r="AF3" t="n">
         <v>1.847362125671972e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.80833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>269561.4672101457</v>
+        <v>350184.8859815507</v>
       </c>
     </row>
   </sheetData>
@@ -16224,28 +16224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>242.9223320040068</v>
+        <v>315.796735813817</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.3770516246484</v>
+        <v>432.0870259091805</v>
       </c>
       <c r="AC2" t="n">
-        <v>300.6554523118127</v>
+        <v>390.8492465943573</v>
       </c>
       <c r="AD2" t="n">
-        <v>242922.3320040068</v>
+        <v>315796.735813817</v>
       </c>
       <c r="AE2" t="n">
-        <v>332377.0516246484</v>
+        <v>432087.0259091805</v>
       </c>
       <c r="AF2" t="n">
         <v>2.063482893408843e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.35</v>
       </c>
       <c r="AH2" t="n">
-        <v>300655.4523118127</v>
+        <v>390849.2465943573</v>
       </c>
     </row>
   </sheetData>
@@ -16521,28 +16521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>495.1609690480777</v>
+        <v>600.9515907436861</v>
       </c>
       <c r="AB2" t="n">
-        <v>677.5010828117952</v>
+        <v>822.2484785685646</v>
       </c>
       <c r="AC2" t="n">
-        <v>612.8413303469785</v>
+        <v>743.7742378069677</v>
       </c>
       <c r="AD2" t="n">
-        <v>495160.9690480777</v>
+        <v>600951.5907436861</v>
       </c>
       <c r="AE2" t="n">
-        <v>677501.0828117952</v>
+        <v>822248.4785685645</v>
       </c>
       <c r="AF2" t="n">
         <v>8.643308694531903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.96666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>612841.3303469785</v>
+        <v>743774.2378069677</v>
       </c>
     </row>
     <row r="3">
@@ -16627,28 +16627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.3548876610649</v>
+        <v>332.6979340065852</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.0702639293011</v>
+        <v>455.2119909047665</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.4193475122036</v>
+        <v>411.7671973868567</v>
       </c>
       <c r="AD3" t="n">
-        <v>265354.8876610649</v>
+        <v>332697.9340065852</v>
       </c>
       <c r="AE3" t="n">
-        <v>363070.2639293011</v>
+        <v>455211.9909047665</v>
       </c>
       <c r="AF3" t="n">
         <v>1.313612412937766e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.79583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>328419.3475122036</v>
+        <v>411767.1973868567</v>
       </c>
     </row>
     <row r="4">
@@ -16733,28 +16733,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.2000417934548</v>
+        <v>297.5089227201972</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.969852890748</v>
+        <v>407.0648332331174</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.9095721939133</v>
+        <v>368.2151368684296</v>
       </c>
       <c r="AD4" t="n">
-        <v>230200.0417934548</v>
+        <v>297508.9227201972</v>
       </c>
       <c r="AE4" t="n">
-        <v>314969.852890748</v>
+        <v>407064.8332331174</v>
       </c>
       <c r="AF4" t="n">
         <v>1.435795766180885e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>284909.5721939133</v>
+        <v>368215.1368684296</v>
       </c>
     </row>
     <row r="5">
@@ -16839,28 +16839,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.1598028943746</v>
+        <v>284.8150942399761</v>
       </c>
       <c r="AB5" t="n">
-        <v>310.8100639031545</v>
+        <v>389.6965770942901</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.1467876289939</v>
+        <v>352.5044827189914</v>
       </c>
       <c r="AD5" t="n">
-        <v>227159.8028943746</v>
+        <v>284815.0942399761</v>
       </c>
       <c r="AE5" t="n">
-        <v>310810.0639031545</v>
+        <v>389696.5770942901</v>
       </c>
       <c r="AF5" t="n">
         <v>1.452498652491087e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.47916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>281146.7876289939</v>
+        <v>352504.4827189914</v>
       </c>
     </row>
   </sheetData>
@@ -17136,28 +17136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>752.493448761188</v>
+        <v>878.9984032619626</v>
       </c>
       <c r="AB2" t="n">
-        <v>1029.594734263044</v>
+        <v>1202.684394015708</v>
       </c>
       <c r="AC2" t="n">
-        <v>931.3316578702634</v>
+        <v>1087.901883428997</v>
       </c>
       <c r="AD2" t="n">
-        <v>752493.448761188</v>
+        <v>878998.4032619626</v>
       </c>
       <c r="AE2" t="n">
-        <v>1029594.734263044</v>
+        <v>1202684.394015708</v>
       </c>
       <c r="AF2" t="n">
         <v>6.232408904498752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>931331.6578702633</v>
+        <v>1087901.883428997</v>
       </c>
     </row>
     <row r="3">
@@ -17242,28 +17242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.3166485660642</v>
+        <v>415.1057936832584</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.5315199283511</v>
+        <v>567.9660600925733</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.4835994299451</v>
+        <v>513.7601764627093</v>
       </c>
       <c r="AD3" t="n">
-        <v>337316.6485660642</v>
+        <v>415105.7936832584</v>
       </c>
       <c r="AE3" t="n">
-        <v>461531.5199283512</v>
+        <v>567966.0600925733</v>
       </c>
       <c r="AF3" t="n">
         <v>1.066706045709126e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.35416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>417483.5994299451</v>
+        <v>513760.1764627093</v>
       </c>
     </row>
     <row r="4">
@@ -17348,28 +17348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>281.8649777809064</v>
+        <v>350.0192793316258</v>
       </c>
       <c r="AB4" t="n">
-        <v>385.6600976050382</v>
+        <v>478.9118197423108</v>
       </c>
       <c r="AC4" t="n">
-        <v>348.8532391669591</v>
+        <v>433.2051478230644</v>
       </c>
       <c r="AD4" t="n">
-        <v>281864.9777809064</v>
+        <v>350019.2793316258</v>
       </c>
       <c r="AE4" t="n">
-        <v>385660.0976050382</v>
+        <v>478911.8197423108</v>
       </c>
       <c r="AF4" t="n">
         <v>1.193382301616293e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.72083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>348853.2391669591</v>
+        <v>433205.1478230644</v>
       </c>
     </row>
     <row r="5">
@@ -17454,28 +17454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>243.9364558847821</v>
+        <v>312.0565920167238</v>
       </c>
       <c r="AB5" t="n">
-        <v>333.7646206583125</v>
+        <v>426.9695961624986</v>
       </c>
       <c r="AC5" t="n">
-        <v>301.9105937043696</v>
+        <v>386.2202171603408</v>
       </c>
       <c r="AD5" t="n">
-        <v>243936.4558847821</v>
+        <v>312056.5920167238</v>
       </c>
       <c r="AE5" t="n">
-        <v>333764.6206583125</v>
+        <v>426969.5961624986</v>
       </c>
       <c r="AF5" t="n">
         <v>1.305476835233184e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.54583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>301910.5937043696</v>
+        <v>386220.2171603409</v>
       </c>
     </row>
     <row r="6">
@@ -17560,28 +17560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>237.914054658497</v>
+        <v>296.2647076085551</v>
       </c>
       <c r="AB6" t="n">
-        <v>325.5245056109227</v>
+        <v>405.362443226472</v>
       </c>
       <c r="AC6" t="n">
-        <v>294.456903672026</v>
+        <v>366.675220574699</v>
       </c>
       <c r="AD6" t="n">
-        <v>237914.054658497</v>
+        <v>296264.7076085551</v>
       </c>
       <c r="AE6" t="n">
-        <v>325524.5056109227</v>
+        <v>405362.443226472</v>
       </c>
       <c r="AF6" t="n">
         <v>1.32760489358743e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.3375</v>
       </c>
       <c r="AH6" t="n">
-        <v>294456.903672026</v>
+        <v>366675.2205746991</v>
       </c>
     </row>
     <row r="7">
@@ -17666,28 +17666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>238.4781006588564</v>
+        <v>296.8287536089144</v>
       </c>
       <c r="AB7" t="n">
-        <v>326.2962582325673</v>
+        <v>406.134195848117</v>
       </c>
       <c r="AC7" t="n">
-        <v>295.1550013066227</v>
+        <v>367.3733182092959</v>
       </c>
       <c r="AD7" t="n">
-        <v>238478.1006588564</v>
+        <v>296828.7536089144</v>
       </c>
       <c r="AE7" t="n">
-        <v>326296.2582325673</v>
+        <v>406134.195848117</v>
       </c>
       <c r="AF7" t="n">
         <v>1.327133247583432e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.34166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>295155.0013066227</v>
+        <v>367373.3182092959</v>
       </c>
     </row>
   </sheetData>
@@ -17963,28 +17963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.2746718831677</v>
+        <v>365.469880234054</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.6429503319757</v>
+        <v>500.0520135294176</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.696675773992</v>
+        <v>452.3277511855781</v>
       </c>
       <c r="AD2" t="n">
-        <v>275274.6718831677</v>
+        <v>365469.8802340539</v>
       </c>
       <c r="AE2" t="n">
-        <v>376642.9503319757</v>
+        <v>500052.0135294176</v>
       </c>
       <c r="AF2" t="n">
         <v>2.069500740706714e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>340696.675773992</v>
+        <v>452327.7511855781</v>
       </c>
     </row>
   </sheetData>
@@ -18260,28 +18260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.3834837070786</v>
+        <v>386.8610267834904</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.0486196777994</v>
+        <v>529.3203239491385</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.3871373787427</v>
+        <v>478.8027351371725</v>
       </c>
       <c r="AD2" t="n">
-        <v>311383.4837070786</v>
+        <v>386861.0267834904</v>
       </c>
       <c r="AE2" t="n">
-        <v>426048.6196777994</v>
+        <v>529320.3239491385</v>
       </c>
       <c r="AF2" t="n">
         <v>1.329255591600255e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>385387.1373787427</v>
+        <v>478802.7351371725</v>
       </c>
     </row>
     <row r="3">
@@ -18366,28 +18366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.4021862574273</v>
+        <v>281.0276790315937</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.0369711630252</v>
+        <v>384.5144685172148</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.7337935644125</v>
+        <v>347.816947311377</v>
       </c>
       <c r="AD3" t="n">
-        <v>224402.1862574273</v>
+        <v>281027.6790315937</v>
       </c>
       <c r="AE3" t="n">
-        <v>307036.9711630252</v>
+        <v>384514.4685172148</v>
       </c>
       <c r="AF3" t="n">
         <v>1.661686451100613e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>277733.7935644125</v>
+        <v>347816.947311377</v>
       </c>
     </row>
     <row r="4">
@@ -18472,19 +18472,19 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.9500802968556</v>
+        <v>281.0176699016792</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.1041827902928</v>
+        <v>384.5007735840941</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.035292362687</v>
+        <v>347.8045594034525</v>
       </c>
       <c r="AD4" t="n">
-        <v>214950.0802968557</v>
+        <v>281017.6699016792</v>
       </c>
       <c r="AE4" t="n">
-        <v>294104.1827902928</v>
+        <v>384500.7735840941</v>
       </c>
       <c r="AF4" t="n">
         <v>1.666312932178882e-05</v>
@@ -18493,7 +18493,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>266035.292362687</v>
+        <v>347804.5594034524</v>
       </c>
     </row>
   </sheetData>
@@ -18769,28 +18769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.9440279462462</v>
+        <v>505.4593420186873</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.9035044901608</v>
+        <v>691.5917710423337</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.3716612546319</v>
+        <v>625.5872230691996</v>
       </c>
       <c r="AD2" t="n">
-        <v>409944.0279462462</v>
+        <v>505459.3420186873</v>
       </c>
       <c r="AE2" t="n">
-        <v>560903.5044901608</v>
+        <v>691591.7710423337</v>
       </c>
       <c r="AF2" t="n">
         <v>1.017169613528289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>507371.6612546319</v>
+        <v>625587.2230691996</v>
       </c>
     </row>
     <row r="3">
@@ -18875,28 +18875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.3220045028557</v>
+        <v>314.1051549202289</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.3968776374222</v>
+        <v>429.7725303032911</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.1007545788081</v>
+        <v>388.755643200679</v>
       </c>
       <c r="AD3" t="n">
-        <v>247322.0045028557</v>
+        <v>314105.1549202289</v>
       </c>
       <c r="AE3" t="n">
-        <v>338396.8776374222</v>
+        <v>429772.5303032912</v>
       </c>
       <c r="AF3" t="n">
         <v>1.441487877337792e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.37916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>306100.7545788081</v>
+        <v>388755.643200679</v>
       </c>
     </row>
     <row r="4">
@@ -18981,28 +18981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.0167415349176</v>
+        <v>288.8672117599949</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.7731004552953</v>
+        <v>395.240863051988</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.7814220961558</v>
+        <v>357.5196298063408</v>
       </c>
       <c r="AD4" t="n">
-        <v>222016.7415349176</v>
+        <v>288867.2117599949</v>
       </c>
       <c r="AE4" t="n">
-        <v>303773.1004552952</v>
+        <v>395240.863051988</v>
       </c>
       <c r="AF4" t="n">
         <v>1.525870139247329e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.64166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>274781.4220961558</v>
+        <v>357519.6298063408</v>
       </c>
     </row>
   </sheetData>
